--- a/data/processed/deforest_carbon.xlsx
+++ b/data/processed/deforest_carbon.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Province</t>
+          <t>province</t>
         </is>
       </c>
     </row>
@@ -475,118 +475,118 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>665080</v>
+        <v>110738</v>
       </c>
       <c r="B3" t="n">
-        <v>4254</v>
+        <v>904</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9878470</v>
+        <v>200469</v>
       </c>
       <c r="B4" t="n">
-        <v>53875</v>
+        <v>930</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5528408</v>
+        <v>126319</v>
       </c>
       <c r="B5" t="n">
-        <v>30828</v>
+        <v>540</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1240072</v>
+        <v>34024</v>
       </c>
       <c r="B6" t="n">
-        <v>8982</v>
+        <v>174</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20391625</v>
+        <v>6892</v>
       </c>
       <c r="B7" t="n">
-        <v>94983</v>
+        <v>48</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3533</v>
+        <v>38233</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>An Giang</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5908776</v>
+        <v>665080</v>
       </c>
       <c r="B9" t="n">
-        <v>26841</v>
+        <v>4254</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -595,124 +595,124 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4946599</v>
+        <v>939096</v>
       </c>
       <c r="B10" t="n">
-        <v>21538</v>
+        <v>6175</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1005701</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6594</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1181104</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7409</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>819899</v>
+        <v>417687</v>
       </c>
       <c r="B13" t="n">
-        <v>5960</v>
+        <v>4889</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1901707</v>
+        <v>592491</v>
       </c>
       <c r="B14" t="n">
-        <v>6746</v>
+        <v>5628</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>442</v>
+        <v>868471</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>4156</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Ba Ria-Vung Tau</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12231893</v>
+        <v>9878470</v>
       </c>
       <c r="B16" t="n">
-        <v>60592</v>
+        <v>53875</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -721,124 +721,124 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7058737</v>
+        <v>10382636</v>
       </c>
       <c r="B17" t="n">
-        <v>42568</v>
+        <v>58556</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1321532</v>
+        <v>13444575</v>
       </c>
       <c r="B18" t="n">
-        <v>11822</v>
+        <v>76933</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>37821</v>
+        <v>8900967</v>
       </c>
       <c r="B19" t="n">
-        <v>202</v>
+        <v>47980</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>214915</v>
+        <v>6173317</v>
       </c>
       <c r="B20" t="n">
-        <v>1558</v>
+        <v>35862</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15473984</v>
+        <v>5540256</v>
       </c>
       <c r="B21" t="n">
-        <v>63619</v>
+        <v>30948</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>213</v>
+        <v>7870561</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>27677</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Bac Giang</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101368</v>
+        <v>5528408</v>
       </c>
       <c r="B23" t="n">
-        <v>431</v>
+        <v>30828</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -847,124 +847,124 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4211</v>
+        <v>11982252</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>68985</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30362</v>
+        <v>12815587</v>
       </c>
       <c r="B25" t="n">
-        <v>248</v>
+        <v>77781</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>909325</v>
+        <v>7068943</v>
       </c>
       <c r="B26" t="n">
-        <v>4692</v>
+        <v>43436</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5615017</v>
+        <v>6765024</v>
       </c>
       <c r="B27" t="n">
-        <v>28641</v>
+        <v>45142</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>594923</v>
+        <v>5538039</v>
       </c>
       <c r="B28" t="n">
-        <v>5021</v>
+        <v>35805</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13909024</v>
+        <v>12505463</v>
       </c>
       <c r="B29" t="n">
-        <v>61858</v>
+        <v>51861</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Bac Kan</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1958500</v>
+        <v>1240072</v>
       </c>
       <c r="B30" t="n">
-        <v>14593</v>
+        <v>8982</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -973,124 +973,124 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>442313</v>
+        <v>1366015</v>
       </c>
       <c r="B31" t="n">
-        <v>1982</v>
+        <v>8885</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>946214</v>
+        <v>1800787</v>
       </c>
       <c r="B32" t="n">
-        <v>6300</v>
+        <v>8934</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5249703</v>
+        <v>1057538</v>
       </c>
       <c r="B33" t="n">
-        <v>23810</v>
+        <v>7088</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4272336</v>
+        <v>666382</v>
       </c>
       <c r="B34" t="n">
-        <v>18833</v>
+        <v>8741</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2508</v>
+        <v>809123</v>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>8506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37355659</v>
+        <v>2365391</v>
       </c>
       <c r="B36" t="n">
-        <v>213781</v>
+        <v>6660</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Bac Lieu</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>232312</v>
+        <v>20391625</v>
       </c>
       <c r="B37" t="n">
-        <v>1531</v>
+        <v>94983</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1099,124 +1099,124 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>644645</v>
+        <v>23339005</v>
       </c>
       <c r="B38" t="n">
-        <v>4575</v>
+        <v>96385</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6275610</v>
+        <v>18523236</v>
       </c>
       <c r="B39" t="n">
-        <v>31928</v>
+        <v>68979</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11435205</v>
+        <v>13950057</v>
       </c>
       <c r="B40" t="n">
-        <v>58924</v>
+        <v>52343</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8047177</v>
+        <v>14795018</v>
       </c>
       <c r="B41" t="n">
-        <v>41657</v>
+        <v>63035</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>31779325</v>
+        <v>11789530</v>
       </c>
       <c r="B42" t="n">
-        <v>139664</v>
+        <v>47914</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>26684554</v>
+        <v>14034223</v>
       </c>
       <c r="B43" t="n">
-        <v>115638</v>
+        <v>44236</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Bac Ninh</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11707981</v>
+        <v>3533</v>
       </c>
       <c r="B44" t="n">
-        <v>47503</v>
+        <v>49</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1225,124 +1225,124 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13438936</v>
+        <v>117810</v>
       </c>
       <c r="B45" t="n">
-        <v>55852</v>
+        <v>286</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>135841</v>
+        <v>38850</v>
       </c>
       <c r="B46" t="n">
-        <v>690</v>
+        <v>134</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5608827</v>
+        <v>5613</v>
       </c>
       <c r="B47" t="n">
-        <v>40047</v>
+        <v>36</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15376586</v>
+        <v>358</v>
       </c>
       <c r="B48" t="n">
-        <v>70783</v>
+        <v>7</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>2137</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12482647</v>
+        <v>5853</v>
       </c>
       <c r="B50" t="n">
-        <v>51942</v>
+        <v>45</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Ben Tre</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9551750</v>
+        <v>5908776</v>
       </c>
       <c r="B51" t="n">
-        <v>44448</v>
+        <v>26841</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1351,124 +1351,124 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10285</v>
+        <v>14034075</v>
       </c>
       <c r="B52" t="n">
-        <v>85</v>
+        <v>59245</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>16462359</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>66427</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11202130</v>
+        <v>11056988</v>
       </c>
       <c r="B54" t="n">
-        <v>49124</v>
+        <v>42528</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2612161</v>
+        <v>8332529</v>
       </c>
       <c r="B55" t="n">
-        <v>15995</v>
+        <v>33261</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>8640568</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>32668</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>425434</v>
+        <v>11113223</v>
       </c>
       <c r="B57" t="n">
-        <v>2224</v>
+        <v>39451</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Binh Dinh</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4242436</v>
+        <v>4946599</v>
       </c>
       <c r="B58" t="n">
-        <v>22723</v>
+        <v>21538</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1477,142 +1477,142 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8309672</v>
+        <v>12365709</v>
       </c>
       <c r="B59" t="n">
-        <v>58435</v>
+        <v>54563</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>673595</v>
+        <v>9008151</v>
       </c>
       <c r="B60" t="n">
-        <v>3605</v>
+        <v>38757</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7381107</v>
+        <v>8040413</v>
       </c>
       <c r="B61" t="n">
-        <v>36984</v>
+        <v>34015</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7827816</v>
+        <v>7147994</v>
       </c>
       <c r="B62" t="n">
-        <v>35265</v>
+        <v>31389</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2804517</v>
+        <v>6750869</v>
       </c>
       <c r="B63" t="n">
-        <v>16251</v>
+        <v>30372</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68574</v>
+        <v>9256120</v>
       </c>
       <c r="B64" t="n">
-        <v>402</v>
+        <v>39124</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Binh Duong</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>110738</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>904</v>
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>939096</v>
+        <v>357</v>
       </c>
       <c r="B66" t="n">
-        <v>6175</v>
+        <v>6</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1621,124 +1621,124 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10382636</v>
+        <v>16725</v>
       </c>
       <c r="B67" t="n">
-        <v>58556</v>
+        <v>14</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>11982252</v>
+        <v>11399</v>
       </c>
       <c r="B68" t="n">
-        <v>68985</v>
+        <v>11</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1366015</v>
+        <v>3564</v>
       </c>
       <c r="B69" t="n">
-        <v>8885</v>
+        <v>5</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>23339005</v>
+        <v>17332</v>
       </c>
       <c r="B70" t="n">
-        <v>96385</v>
+        <v>25</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117810</v>
+        <v>5945</v>
       </c>
       <c r="B71" t="n">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Binh Phuoc</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14034075</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>59245</v>
+        <v>0</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12365709</v>
+        <v>12149</v>
       </c>
       <c r="B73" t="n">
-        <v>54563</v>
+        <v>157</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1747,38 +1747,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>357</v>
+        <v>32160</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>510</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12149</v>
+        <v>40</v>
       </c>
       <c r="B75" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1789,82 +1789,82 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1549186</v>
+        <v>12578</v>
       </c>
       <c r="B76" t="n">
-        <v>11324</v>
+        <v>177</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7042014</v>
+        <v>33473</v>
       </c>
       <c r="B77" t="n">
-        <v>26582</v>
+        <v>460</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>202</v>
+        <v>5751</v>
       </c>
       <c r="B78" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Binh Thuan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27098981</v>
+        <v>819899</v>
       </c>
       <c r="B79" t="n">
-        <v>143337</v>
+        <v>5960</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>11032818</v>
+        <v>1549186</v>
       </c>
       <c r="B80" t="n">
-        <v>60686</v>
+        <v>11324</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1873,124 +1873,124 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3641527</v>
+        <v>1536024</v>
       </c>
       <c r="B81" t="n">
-        <v>30720</v>
+        <v>10518</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>64550</v>
+        <v>1811724</v>
       </c>
       <c r="B82" t="n">
-        <v>376</v>
+        <v>12556</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>280272</v>
+        <v>2246236</v>
       </c>
       <c r="B83" t="n">
-        <v>1816</v>
+        <v>15945</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20914612</v>
+        <v>1727448</v>
       </c>
       <c r="B84" t="n">
-        <v>86202</v>
+        <v>12767</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>2132327</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>14934</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Ca Mau</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>167974</v>
+        <v>1901707</v>
       </c>
       <c r="B86" t="n">
-        <v>707</v>
+        <v>6746</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21397</v>
+        <v>7042014</v>
       </c>
       <c r="B87" t="n">
-        <v>149</v>
+        <v>26582</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1999,124 +1999,124 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>62937</v>
+        <v>8257435</v>
       </c>
       <c r="B88" t="n">
-        <v>517</v>
+        <v>32064</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>480007</v>
+        <v>2539343</v>
       </c>
       <c r="B89" t="n">
-        <v>3062</v>
+        <v>12854</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7855796</v>
+        <v>1573639</v>
       </c>
       <c r="B90" t="n">
-        <v>38161</v>
+        <v>6776</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1140999</v>
+        <v>2039223</v>
       </c>
       <c r="B91" t="n">
-        <v>9265</v>
+        <v>9335</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>31019439</v>
+        <v>2397398</v>
       </c>
       <c r="B92" t="n">
-        <v>135631</v>
+        <v>8157</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Can Tho</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3823000</v>
+        <v>442</v>
       </c>
       <c r="B93" t="n">
-        <v>30465</v>
+        <v>11</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2429079</v>
+        <v>202</v>
       </c>
       <c r="B94" t="n">
-        <v>10358</v>
+        <v>11</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2125,61 +2125,61 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1987751</v>
+        <v>233</v>
       </c>
       <c r="B95" t="n">
-        <v>13367</v>
+        <v>9</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11429996</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
-        <v>50729</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14399485</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>63771</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
@@ -2192,57 +2192,57 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>46558112</v>
+        <v>259</v>
       </c>
       <c r="B99" t="n">
-        <v>239219</v>
+        <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Cao Bang</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>422564</v>
+        <v>12231893</v>
       </c>
       <c r="B100" t="n">
-        <v>2352</v>
+        <v>60592</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>703147</v>
+        <v>27098981</v>
       </c>
       <c r="B101" t="n">
-        <v>4191</v>
+        <v>143337</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2251,124 +2251,124 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>12326851</v>
+        <v>13585745</v>
       </c>
       <c r="B102" t="n">
-        <v>55392</v>
+        <v>73562</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>14457981</v>
+        <v>9982816</v>
       </c>
       <c r="B103" t="n">
-        <v>69179</v>
+        <v>54257</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>17412783</v>
+        <v>10874832</v>
       </c>
       <c r="B104" t="n">
-        <v>85629</v>
+        <v>60358</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>51931773</v>
+        <v>11087492</v>
       </c>
       <c r="B105" t="n">
-        <v>217768</v>
+        <v>62763</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>39250246</v>
+        <v>8623536</v>
       </c>
       <c r="B106" t="n">
-        <v>157962</v>
+        <v>39217</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Da Nang</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>29001214</v>
+        <v>7058737</v>
       </c>
       <c r="B107" t="n">
-        <v>104622</v>
+        <v>42568</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>27175748</v>
+        <v>11032818</v>
       </c>
       <c r="B108" t="n">
-        <v>118838</v>
+        <v>60686</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2377,124 +2377,124 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>324104</v>
+        <v>9888230</v>
       </c>
       <c r="B109" t="n">
-        <v>1725</v>
+        <v>52586</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5934203</v>
+        <v>6704006</v>
       </c>
       <c r="B110" t="n">
-        <v>43579</v>
+        <v>34685</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>26145136</v>
+        <v>6166690</v>
       </c>
       <c r="B111" t="n">
-        <v>109835</v>
+        <v>32900</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2153</v>
+        <v>6029745</v>
       </c>
       <c r="B112" t="n">
-        <v>54</v>
+        <v>31757</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22757020</v>
+        <v>5597463</v>
       </c>
       <c r="B113" t="n">
-        <v>90305</v>
+        <v>28806</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Dak Lak</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17327101</v>
+        <v>1321532</v>
       </c>
       <c r="B114" t="n">
-        <v>74272</v>
+        <v>11822</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>156589</v>
+        <v>3641527</v>
       </c>
       <c r="B115" t="n">
-        <v>1779</v>
+        <v>30720</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2503,124 +2503,124 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>30405</v>
+        <v>3262168</v>
       </c>
       <c r="B116" t="n">
-        <v>347</v>
+        <v>27556</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>24081189</v>
+        <v>3311600</v>
       </c>
       <c r="B117" t="n">
-        <v>100448</v>
+        <v>26916</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3262714</v>
+        <v>2824382</v>
       </c>
       <c r="B118" t="n">
-        <v>19169</v>
+        <v>23758</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10986</v>
+        <v>2938569</v>
       </c>
       <c r="B119" t="n">
-        <v>107</v>
+        <v>24359</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>846848</v>
+        <v>2216727</v>
       </c>
       <c r="B120" t="n">
-        <v>4118</v>
+        <v>19076</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Dak Nong</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>7396044</v>
+        <v>37821</v>
       </c>
       <c r="B121" t="n">
-        <v>38363</v>
+        <v>202</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11679290</v>
+        <v>64550</v>
       </c>
       <c r="B122" t="n">
-        <v>86184</v>
+        <v>376</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2629,142 +2629,142 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1610895</v>
+        <v>121053</v>
       </c>
       <c r="B123" t="n">
-        <v>7473</v>
+        <v>771</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14259813</v>
+        <v>40373</v>
       </c>
       <c r="B124" t="n">
-        <v>64091</v>
+        <v>411</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11550485</v>
+        <v>52578</v>
       </c>
       <c r="B125" t="n">
-        <v>52574</v>
+        <v>522</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3926043</v>
+        <v>43381</v>
       </c>
       <c r="B126" t="n">
-        <v>21422</v>
+        <v>399</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>571292</v>
+        <v>45734</v>
       </c>
       <c r="B127" t="n">
-        <v>1490</v>
+        <v>195</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Dien Bien</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>200469</v>
+        <v>214915</v>
       </c>
       <c r="B128" t="n">
-        <v>930</v>
+        <v>1558</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1005701</v>
+        <v>280272</v>
       </c>
       <c r="B129" t="n">
-        <v>6594</v>
+        <v>1816</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>13444575</v>
+        <v>297052</v>
       </c>
       <c r="B130" t="n">
-        <v>76933</v>
+        <v>1693</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2773,124 +2773,124 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12815587</v>
+        <v>165819</v>
       </c>
       <c r="B131" t="n">
-        <v>77781</v>
+        <v>1028</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1800787</v>
+        <v>123136</v>
       </c>
       <c r="B132" t="n">
-        <v>8934</v>
+        <v>979</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>18523236</v>
+        <v>143991</v>
       </c>
       <c r="B133" t="n">
-        <v>68979</v>
+        <v>871</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>38850</v>
+        <v>221798</v>
       </c>
       <c r="B134" t="n">
-        <v>134</v>
+        <v>1122</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Dong Nai</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>16462359</v>
+        <v>15473984</v>
       </c>
       <c r="B135" t="n">
-        <v>66427</v>
+        <v>63619</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9008151</v>
+        <v>20914612</v>
       </c>
       <c r="B136" t="n">
-        <v>38757</v>
+        <v>86202</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>16725</v>
+        <v>19287609</v>
       </c>
       <c r="B137" t="n">
-        <v>14</v>
+        <v>78848</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2899,124 +2899,124 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>32160</v>
+        <v>19049562</v>
       </c>
       <c r="B138" t="n">
-        <v>510</v>
+        <v>70865</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1536024</v>
+        <v>14095021</v>
       </c>
       <c r="B139" t="n">
-        <v>10518</v>
+        <v>55375</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8257435</v>
+        <v>12718006</v>
       </c>
       <c r="B140" t="n">
-        <v>32064</v>
+        <v>49707</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>233</v>
+        <v>10300664</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>35836</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Dong Thap</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13585745</v>
+        <v>213</v>
       </c>
       <c r="B142" t="n">
-        <v>73562</v>
+        <v>4</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9888230</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>52586</v>
+        <v>1</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3262168</v>
+        <v>108</v>
       </c>
       <c r="B144" t="n">
-        <v>27556</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3025,74 +3025,74 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>121053</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>297052</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1693</v>
+        <v>0</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>19287609</v>
+        <v>891</v>
       </c>
       <c r="B147" t="n">
-        <v>78848</v>
+        <v>3</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Gia Lai</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>108</v>
+        <v>732</v>
       </c>
       <c r="B148" t="n">
         <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3103,14 +3103,14 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>305092</v>
+        <v>101368</v>
       </c>
       <c r="B149" t="n">
-        <v>1135</v>
+        <v>431</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3121,28 +3121,28 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>12816</v>
+        <v>167974</v>
       </c>
       <c r="B150" t="n">
-        <v>83</v>
+        <v>707</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>41440</v>
+        <v>305092</v>
       </c>
       <c r="B151" t="n">
-        <v>375</v>
+        <v>1135</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3151,124 +3151,124 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>576764</v>
+        <v>222767</v>
       </c>
       <c r="B152" t="n">
-        <v>3349</v>
+        <v>964</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9491692</v>
+        <v>218192</v>
       </c>
       <c r="B153" t="n">
-        <v>40730</v>
+        <v>1035</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1459288</v>
+        <v>176778</v>
       </c>
       <c r="B154" t="n">
-        <v>10257</v>
+        <v>880</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>16152748</v>
+        <v>237561</v>
       </c>
       <c r="B155" t="n">
-        <v>71043</v>
+        <v>702</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Ha Giang</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1849655</v>
+        <v>4211</v>
       </c>
       <c r="B156" t="n">
-        <v>16496</v>
+        <v>21</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1455717</v>
+        <v>21397</v>
       </c>
       <c r="B157" t="n">
-        <v>5456</v>
+        <v>149</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1524186</v>
+        <v>12816</v>
       </c>
       <c r="B158" t="n">
-        <v>10297</v>
+        <v>83</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3277,124 +3277,124 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>7272078</v>
+        <v>14206</v>
       </c>
       <c r="B159" t="n">
-        <v>33919</v>
+        <v>89</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>17851077</v>
+        <v>6838</v>
       </c>
       <c r="B160" t="n">
-        <v>79861</v>
+        <v>48</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>672</v>
+        <v>10035</v>
       </c>
       <c r="B161" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>36923363</v>
+        <v>19258</v>
       </c>
       <c r="B162" t="n">
-        <v>192872</v>
+        <v>57</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Ha Nam</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>221826</v>
+        <v>30362</v>
       </c>
       <c r="B163" t="n">
-        <v>1348</v>
+        <v>248</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>973484</v>
+        <v>62937</v>
       </c>
       <c r="B164" t="n">
-        <v>5218</v>
+        <v>517</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9431607</v>
+        <v>41440</v>
       </c>
       <c r="B165" t="n">
-        <v>41764</v>
+        <v>375</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3403,124 +3403,124 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11014327</v>
+        <v>11605</v>
       </c>
       <c r="B166" t="n">
-        <v>48403</v>
+        <v>116</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16368808</v>
+        <v>8556</v>
       </c>
       <c r="B167" t="n">
-        <v>72979</v>
+        <v>75</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>41421542</v>
+        <v>6213</v>
       </c>
       <c r="B168" t="n">
-        <v>166000</v>
+        <v>51</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>31031441</v>
+        <v>31857</v>
       </c>
       <c r="B169" t="n">
-        <v>114368</v>
+        <v>169</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Ha Noi</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>29131553</v>
+        <v>909325</v>
       </c>
       <c r="B170" t="n">
-        <v>100886</v>
+        <v>4692</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>21197409</v>
+        <v>480007</v>
       </c>
       <c r="B171" t="n">
-        <v>89137</v>
+        <v>3062</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>396623</v>
+        <v>576764</v>
       </c>
       <c r="B172" t="n">
-        <v>1900</v>
+        <v>3349</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3529,124 +3529,124 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5382499</v>
+        <v>66334</v>
       </c>
       <c r="B173" t="n">
-        <v>39776</v>
+        <v>468</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>21736292</v>
+        <v>60607</v>
       </c>
       <c r="B174" t="n">
-        <v>91683</v>
+        <v>407</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6885</v>
+        <v>177527</v>
       </c>
       <c r="B175" t="n">
-        <v>25</v>
+        <v>1058</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>15730018</v>
+        <v>72691</v>
       </c>
       <c r="B176" t="n">
-        <v>59054</v>
+        <v>380</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Ha Tinh</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>16239762</v>
+        <v>5615017</v>
       </c>
       <c r="B177" t="n">
-        <v>63321</v>
+        <v>28641</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>121868</v>
+        <v>7855796</v>
       </c>
       <c r="B178" t="n">
-        <v>957</v>
+        <v>38161</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>16594</v>
+        <v>9491692</v>
       </c>
       <c r="B179" t="n">
-        <v>208</v>
+        <v>40730</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3655,124 +3655,124 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17970757</v>
+        <v>13437852</v>
       </c>
       <c r="B180" t="n">
-        <v>74117</v>
+        <v>57848</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4447246</v>
+        <v>7461017</v>
       </c>
       <c r="B181" t="n">
-        <v>25123</v>
+        <v>30757</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6213</v>
+        <v>8073072</v>
       </c>
       <c r="B182" t="n">
-        <v>79</v>
+        <v>31807</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>848784</v>
+        <v>6328750</v>
       </c>
       <c r="B183" t="n">
-        <v>3621</v>
+        <v>22346</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Hai Duong</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7961846</v>
+        <v>594923</v>
       </c>
       <c r="B184" t="n">
-        <v>39182</v>
+        <v>5021</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9205517</v>
+        <v>1140999</v>
       </c>
       <c r="B185" t="n">
-        <v>67620</v>
+        <v>9265</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1758511</v>
+        <v>1459288</v>
       </c>
       <c r="B186" t="n">
-        <v>7810</v>
+        <v>10257</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3781,142 +3781,142 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12967426</v>
+        <v>880612</v>
       </c>
       <c r="B187" t="n">
-        <v>66965</v>
+        <v>6941</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>7978319</v>
+        <v>284755</v>
       </c>
       <c r="B188" t="n">
-        <v>36306</v>
+        <v>2618</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5841910</v>
+        <v>267658</v>
       </c>
       <c r="B189" t="n">
-        <v>25487</v>
+        <v>2016</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>360933</v>
+        <v>421564</v>
       </c>
       <c r="B190" t="n">
-        <v>752</v>
+        <v>3237</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Hai Phong</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>126319</v>
+        <v>13909024</v>
       </c>
       <c r="B191" t="n">
-        <v>540</v>
+        <v>61858</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1181104</v>
+        <v>31019439</v>
       </c>
       <c r="B192" t="n">
-        <v>7409</v>
+        <v>135631</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8900967</v>
+        <v>16152748</v>
       </c>
       <c r="B193" t="n">
-        <v>47980</v>
+        <v>71043</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7068943</v>
+        <v>11364684</v>
       </c>
       <c r="B194" t="n">
-        <v>43436</v>
+        <v>48888</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3925,124 +3925,124 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1057538</v>
+        <v>14237665</v>
       </c>
       <c r="B195" t="n">
-        <v>7088</v>
+        <v>65345</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>13950057</v>
+        <v>14850968</v>
       </c>
       <c r="B196" t="n">
-        <v>52343</v>
+        <v>66312</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5613</v>
+        <v>9099980</v>
       </c>
       <c r="B197" t="n">
-        <v>36</v>
+        <v>40483</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Hau Giang</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11056988</v>
+        <v>1958500</v>
       </c>
       <c r="B198" t="n">
-        <v>42528</v>
+        <v>14593</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8040413</v>
+        <v>3823000</v>
       </c>
       <c r="B199" t="n">
-        <v>34015</v>
+        <v>30465</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11399</v>
+        <v>1849655</v>
       </c>
       <c r="B200" t="n">
-        <v>11</v>
+        <v>16496</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>40</v>
+        <v>1832768</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>16081</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4051,124 +4051,124 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1811724</v>
+        <v>1507853</v>
       </c>
       <c r="B202" t="n">
-        <v>12556</v>
+        <v>13824</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2539343</v>
+        <v>1467080</v>
       </c>
       <c r="B203" t="n">
-        <v>12854</v>
+        <v>12321</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>106</v>
+        <v>1151274</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>9424</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Ho Chi Minh city</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9982816</v>
+        <v>442313</v>
       </c>
       <c r="B205" t="n">
-        <v>54257</v>
+        <v>1982</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6704006</v>
+        <v>2429079</v>
       </c>
       <c r="B206" t="n">
-        <v>34685</v>
+        <v>10358</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3311600</v>
+        <v>1455717</v>
       </c>
       <c r="B207" t="n">
-        <v>26916</v>
+        <v>5456</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>40373</v>
+        <v>161705</v>
       </c>
       <c r="B208" t="n">
-        <v>411</v>
+        <v>741</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4177,124 +4177,124 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>165819</v>
+        <v>294596</v>
       </c>
       <c r="B209" t="n">
-        <v>1028</v>
+        <v>1824</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19049562</v>
+        <v>185551</v>
       </c>
       <c r="B210" t="n">
-        <v>70865</v>
+        <v>1275</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>151039</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Hoa Binh</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>222767</v>
+        <v>946214</v>
       </c>
       <c r="B212" t="n">
-        <v>964</v>
+        <v>6300</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>14206</v>
+        <v>1987751</v>
       </c>
       <c r="B213" t="n">
-        <v>89</v>
+        <v>13367</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>11605</v>
+        <v>1524186</v>
       </c>
       <c r="B214" t="n">
-        <v>116</v>
+        <v>10297</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>66334</v>
+        <v>1655349</v>
       </c>
       <c r="B215" t="n">
-        <v>468</v>
+        <v>10874</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4303,115 +4303,115 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>13437852</v>
+        <v>1142832</v>
       </c>
       <c r="B216" t="n">
-        <v>57848</v>
+        <v>8265</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>880612</v>
+        <v>2633177</v>
       </c>
       <c r="B217" t="n">
-        <v>6941</v>
+        <v>19120</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>11364684</v>
+        <v>1926770</v>
       </c>
       <c r="B218" t="n">
-        <v>48888</v>
+        <v>11336</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Hung Yen</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1832768</v>
+        <v>5249703</v>
       </c>
       <c r="B219" t="n">
-        <v>16081</v>
+        <v>23810</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>161705</v>
+        <v>11429996</v>
       </c>
       <c r="B220" t="n">
-        <v>741</v>
+        <v>50729</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1655349</v>
+        <v>7272078</v>
       </c>
       <c r="B221" t="n">
-        <v>10874</v>
+        <v>33919</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
@@ -4435,118 +4435,118 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17860498</v>
+        <v>5819363</v>
       </c>
       <c r="B223" t="n">
-        <v>78930</v>
+        <v>29676</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0</v>
+        <v>5561826</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>28731</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>23998618</v>
+        <v>4835379</v>
       </c>
       <c r="B225" t="n">
-        <v>119159</v>
+        <v>21749</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Khanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>123997</v>
+        <v>4272336</v>
       </c>
       <c r="B226" t="n">
-        <v>757</v>
+        <v>18833</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>369813</v>
+        <v>14399485</v>
       </c>
       <c r="B227" t="n">
-        <v>2944</v>
+        <v>63771</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>9446407</v>
+        <v>17851077</v>
       </c>
       <c r="B228" t="n">
-        <v>41064</v>
+        <v>79861</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>8749122</v>
+        <v>17860498</v>
       </c>
       <c r="B229" t="n">
-        <v>36762</v>
+        <v>78930</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4555,124 +4555,124 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>19916095</v>
+        <v>15376665</v>
       </c>
       <c r="B230" t="n">
-        <v>82054</v>
+        <v>66674</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>38837373</v>
+        <v>20490034</v>
       </c>
       <c r="B231" t="n">
-        <v>149429</v>
+        <v>87101</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>27478012</v>
+        <v>29614507</v>
       </c>
       <c r="B232" t="n">
-        <v>99847</v>
+        <v>126441</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Kien Giang</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>29054561</v>
+        <v>2508</v>
       </c>
       <c r="B233" t="n">
-        <v>99034</v>
+        <v>11</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>14346090</v>
+        <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>56195</v>
+        <v>0</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>117430</v>
+        <v>672</v>
       </c>
       <c r="B235" t="n">
-        <v>698</v>
+        <v>6</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3451643</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>24766</v>
+        <v>0</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4681,25 +4681,25 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>17571502</v>
+        <v>0</v>
       </c>
       <c r="B237" t="n">
-        <v>69269</v>
+        <v>0</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
@@ -4708,97 +4708,97 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>13927979</v>
+        <v>4374</v>
       </c>
       <c r="B239" t="n">
-        <v>51030</v>
+        <v>18</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Kon Tum</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10918194</v>
+        <v>37355659</v>
       </c>
       <c r="B240" t="n">
-        <v>39803</v>
+        <v>213781</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>27761</v>
+        <v>46558112</v>
       </c>
       <c r="B241" t="n">
-        <v>195</v>
+        <v>239219</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>6749</v>
+        <v>36923363</v>
       </c>
       <c r="B242" t="n">
-        <v>86</v>
+        <v>192872</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>13711299</v>
+        <v>23998618</v>
       </c>
       <c r="B243" t="n">
-        <v>56376</v>
+        <v>119159</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4807,124 +4807,124 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1870895</v>
+        <v>22074315</v>
       </c>
       <c r="B244" t="n">
-        <v>12205</v>
+        <v>118386</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2248</v>
+        <v>24475044</v>
       </c>
       <c r="B245" t="n">
-        <v>36</v>
+        <v>137689</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>778516</v>
+        <v>20985736</v>
       </c>
       <c r="B246" t="n">
-        <v>3382</v>
+        <v>95803</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Lai Chau</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9342690</v>
+        <v>232312</v>
       </c>
       <c r="B247" t="n">
-        <v>44199</v>
+        <v>1531</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>6262881</v>
+        <v>422564</v>
       </c>
       <c r="B248" t="n">
-        <v>48824</v>
+        <v>2352</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1703073</v>
+        <v>221826</v>
       </c>
       <c r="B249" t="n">
-        <v>7599</v>
+        <v>1348</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9992466</v>
+        <v>123997</v>
       </c>
       <c r="B250" t="n">
-        <v>48950</v>
+        <v>757</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4933,142 +4933,142 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4361978</v>
+        <v>140360</v>
       </c>
       <c r="B251" t="n">
-        <v>21161</v>
+        <v>976</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5195976</v>
+        <v>144098</v>
       </c>
       <c r="B252" t="n">
-        <v>27123</v>
+        <v>985</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>226560</v>
+        <v>216788</v>
       </c>
       <c r="B253" t="n">
-        <v>450</v>
+        <v>1148</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Lam Dong</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>34024</v>
+        <v>644645</v>
       </c>
       <c r="B254" t="n">
-        <v>174</v>
+        <v>4575</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>417687</v>
+        <v>703147</v>
       </c>
       <c r="B255" t="n">
-        <v>4889</v>
+        <v>4191</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>6173317</v>
+        <v>973484</v>
       </c>
       <c r="B256" t="n">
-        <v>35862</v>
+        <v>5218</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>6765024</v>
+        <v>369813</v>
       </c>
       <c r="B257" t="n">
-        <v>45142</v>
+        <v>2944</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>666382</v>
+        <v>342131</v>
       </c>
       <c r="B258" t="n">
-        <v>8741</v>
+        <v>2901</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5077,124 +5077,124 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>14795018</v>
+        <v>1034700</v>
       </c>
       <c r="B259" t="n">
-        <v>63035</v>
+        <v>9204</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>358</v>
+        <v>435586</v>
       </c>
       <c r="B260" t="n">
-        <v>7</v>
+        <v>2768</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Lang Son</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>8332529</v>
+        <v>6275610</v>
       </c>
       <c r="B261" t="n">
-        <v>33261</v>
+        <v>31928</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>7147994</v>
+        <v>12326851</v>
       </c>
       <c r="B262" t="n">
-        <v>31389</v>
+        <v>55392</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3564</v>
+        <v>9431607</v>
       </c>
       <c r="B263" t="n">
-        <v>5</v>
+        <v>41764</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>12578</v>
+        <v>9446407</v>
       </c>
       <c r="B264" t="n">
-        <v>177</v>
+        <v>41064</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2246236</v>
+        <v>6664677</v>
       </c>
       <c r="B265" t="n">
-        <v>15945</v>
+        <v>30267</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5203,124 +5203,124 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1573639</v>
+        <v>5998178</v>
       </c>
       <c r="B266" t="n">
-        <v>6776</v>
+        <v>25375</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0</v>
+        <v>8805379</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>35913</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Lao Cai</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>10874832</v>
+        <v>11435205</v>
       </c>
       <c r="B268" t="n">
-        <v>60358</v>
+        <v>58924</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6166690</v>
+        <v>14457981</v>
       </c>
       <c r="B269" t="n">
-        <v>32900</v>
+        <v>69179</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2824382</v>
+        <v>11014327</v>
       </c>
       <c r="B270" t="n">
-        <v>23758</v>
+        <v>48403</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>52578</v>
+        <v>8749122</v>
       </c>
       <c r="B271" t="n">
-        <v>522</v>
+        <v>36762</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>123136</v>
+        <v>10538608</v>
       </c>
       <c r="B272" t="n">
-        <v>979</v>
+        <v>49959</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5329,124 +5329,124 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>14095021</v>
+        <v>9874624</v>
       </c>
       <c r="B273" t="n">
-        <v>55375</v>
+        <v>45702</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>8816113</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>33616</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Long An</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>218192</v>
+        <v>8047177</v>
       </c>
       <c r="B275" t="n">
-        <v>1035</v>
+        <v>41657</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>6838</v>
+        <v>17412783</v>
       </c>
       <c r="B276" t="n">
-        <v>48</v>
+        <v>85629</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>8556</v>
+        <v>16368808</v>
       </c>
       <c r="B277" t="n">
-        <v>75</v>
+        <v>72979</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>60607</v>
+        <v>19916095</v>
       </c>
       <c r="B278" t="n">
-        <v>407</v>
+        <v>82054</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>7461017</v>
+        <v>15157878</v>
       </c>
       <c r="B279" t="n">
-        <v>30757</v>
+        <v>66994</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5455,124 +5455,124 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>284755</v>
+        <v>10069210</v>
       </c>
       <c r="B280" t="n">
-        <v>2618</v>
+        <v>45691</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>14237665</v>
+        <v>7157837</v>
       </c>
       <c r="B281" t="n">
-        <v>65345</v>
+        <v>30251</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1507853</v>
+        <v>31779325</v>
       </c>
       <c r="B282" t="n">
-        <v>13824</v>
+        <v>139664</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>294596</v>
+        <v>51931773</v>
       </c>
       <c r="B283" t="n">
-        <v>1824</v>
+        <v>217768</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1142832</v>
+        <v>41421542</v>
       </c>
       <c r="B284" t="n">
-        <v>8265</v>
+        <v>166000</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>5819363</v>
+        <v>38837373</v>
       </c>
       <c r="B285" t="n">
-        <v>29676</v>
+        <v>149429</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>15376665</v>
+        <v>40497373</v>
       </c>
       <c r="B286" t="n">
-        <v>66674</v>
+        <v>154043</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5581,124 +5581,124 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0</v>
+        <v>31332305</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>121465</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>22074315</v>
+        <v>36514749</v>
       </c>
       <c r="B288" t="n">
-        <v>118386</v>
+        <v>146415</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Nghe An</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>140360</v>
+        <v>26684554</v>
       </c>
       <c r="B289" t="n">
-        <v>976</v>
+        <v>115638</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>342131</v>
+        <v>39250246</v>
       </c>
       <c r="B290" t="n">
-        <v>2901</v>
+        <v>157962</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6664677</v>
+        <v>31031441</v>
       </c>
       <c r="B291" t="n">
-        <v>30267</v>
+        <v>114368</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10538608</v>
+        <v>27478012</v>
       </c>
       <c r="B292" t="n">
-        <v>49959</v>
+        <v>99847</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>15157878</v>
+        <v>30774125</v>
       </c>
       <c r="B293" t="n">
-        <v>66994</v>
+        <v>114622</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -5707,38 +5707,38 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>40497373</v>
+        <v>25798800</v>
       </c>
       <c r="B294" t="n">
-        <v>154043</v>
+        <v>93625</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Ninh Binh</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>30774125</v>
+        <v>26332237</v>
       </c>
       <c r="B295" t="n">
-        <v>114622</v>
+        <v>84074</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -5749,14 +5749,14 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>26166911</v>
+        <v>11707981</v>
       </c>
       <c r="B296" t="n">
-        <v>87395</v>
+        <v>47503</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -5767,64 +5767,64 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>15456613</v>
+        <v>29001214</v>
       </c>
       <c r="B297" t="n">
-        <v>60430</v>
+        <v>104622</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>90511</v>
+        <v>29131553</v>
       </c>
       <c r="B298" t="n">
-        <v>610</v>
+        <v>100886</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3795662</v>
+        <v>29054561</v>
       </c>
       <c r="B299" t="n">
-        <v>29691</v>
+        <v>99034</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>13822227</v>
+        <v>26166911</v>
       </c>
       <c r="B300" t="n">
-        <v>61016</v>
+        <v>87395</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -5833,124 +5833,124 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0</v>
+        <v>30652913</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>98399</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>11243753</v>
+        <v>26022789</v>
       </c>
       <c r="B302" t="n">
-        <v>41772</v>
+        <v>81150</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Ninh Thuan</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>12448062</v>
+        <v>13438936</v>
       </c>
       <c r="B303" t="n">
-        <v>45895</v>
+        <v>55852</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>63559</v>
+        <v>27175748</v>
       </c>
       <c r="B304" t="n">
-        <v>382</v>
+        <v>118838</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>542</v>
+        <v>21197409</v>
       </c>
       <c r="B305" t="n">
-        <v>10</v>
+        <v>89137</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>13073605</v>
+        <v>14346090</v>
       </c>
       <c r="B306" t="n">
-        <v>54922</v>
+        <v>56195</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2223313</v>
+        <v>15456613</v>
       </c>
       <c r="B307" t="n">
-        <v>15266</v>
+        <v>60430</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5959,124 +5959,124 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1820</v>
+        <v>14894200</v>
       </c>
       <c r="B308" t="n">
-        <v>36</v>
+        <v>63365</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>548039</v>
+        <v>12081214</v>
       </c>
       <c r="B309" t="n">
-        <v>2760</v>
+        <v>48648</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Phu Tho</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7560445</v>
+        <v>135841</v>
       </c>
       <c r="B310" t="n">
-        <v>37249</v>
+        <v>690</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7636247</v>
+        <v>324104</v>
       </c>
       <c r="B311" t="n">
-        <v>61656</v>
+        <v>1725</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1714335</v>
+        <v>396623</v>
       </c>
       <c r="B312" t="n">
-        <v>7742</v>
+        <v>1900</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7106930</v>
+        <v>117430</v>
       </c>
       <c r="B313" t="n">
-        <v>38843</v>
+        <v>698</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4675238</v>
+        <v>90511</v>
       </c>
       <c r="B314" t="n">
-        <v>21632</v>
+        <v>610</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6085,142 +6085,142 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4440935</v>
+        <v>83749</v>
       </c>
       <c r="B315" t="n">
-        <v>34202</v>
+        <v>523</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>12688</v>
+        <v>107203</v>
       </c>
       <c r="B316" t="n">
-        <v>63</v>
+        <v>653</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Phu Yen</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6892</v>
+        <v>5608827</v>
       </c>
       <c r="B317" t="n">
-        <v>48</v>
+        <v>40047</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>592491</v>
+        <v>5934203</v>
       </c>
       <c r="B318" t="n">
-        <v>5628</v>
+        <v>43579</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5540256</v>
+        <v>5382499</v>
       </c>
       <c r="B319" t="n">
-        <v>30948</v>
+        <v>39776</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5538039</v>
+        <v>3451643</v>
       </c>
       <c r="B320" t="n">
-        <v>35805</v>
+        <v>24766</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>809123</v>
+        <v>3795662</v>
       </c>
       <c r="B321" t="n">
-        <v>8506</v>
+        <v>29691</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>11789530</v>
+        <v>5160939</v>
       </c>
       <c r="B322" t="n">
-        <v>47914</v>
+        <v>35453</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6229,124 +6229,124 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2137</v>
+        <v>3159493</v>
       </c>
       <c r="B323" t="n">
-        <v>28</v>
+        <v>21414</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Quang Binh</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>8640568</v>
+        <v>15376586</v>
       </c>
       <c r="B324" t="n">
-        <v>32668</v>
+        <v>70783</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>6750869</v>
+        <v>26145136</v>
       </c>
       <c r="B325" t="n">
-        <v>30372</v>
+        <v>109835</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>17332</v>
+        <v>21736292</v>
       </c>
       <c r="B326" t="n">
-        <v>25</v>
+        <v>91683</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>33473</v>
+        <v>17571502</v>
       </c>
       <c r="B327" t="n">
-        <v>460</v>
+        <v>69269</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1727448</v>
+        <v>13822227</v>
       </c>
       <c r="B328" t="n">
-        <v>12767</v>
+        <v>61016</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2039223</v>
+        <v>16461169</v>
       </c>
       <c r="B329" t="n">
-        <v>9335</v>
+        <v>71445</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -6355,124 +6355,124 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0</v>
+        <v>19410276</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>72919</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Quang Nam</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>11087492</v>
+        <v>0</v>
       </c>
       <c r="B331" t="n">
-        <v>62763</v>
+        <v>3</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>6029745</v>
+        <v>2153</v>
       </c>
       <c r="B332" t="n">
-        <v>31757</v>
+        <v>54</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2938569</v>
+        <v>6885</v>
       </c>
       <c r="B333" t="n">
-        <v>24359</v>
+        <v>25</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>43381</v>
+        <v>0</v>
       </c>
       <c r="B334" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>143991</v>
+        <v>0</v>
       </c>
       <c r="B335" t="n">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>12718006</v>
+        <v>0</v>
       </c>
       <c r="B336" t="n">
-        <v>49707</v>
+        <v>0</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -6481,124 +6481,124 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>891</v>
+        <v>948</v>
       </c>
       <c r="B337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Quang Ngai</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>176778</v>
+        <v>12482647</v>
       </c>
       <c r="B338" t="n">
-        <v>880</v>
+        <v>51942</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>10035</v>
+        <v>22757020</v>
       </c>
       <c r="B339" t="n">
-        <v>75</v>
+        <v>90305</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>6213</v>
+        <v>15730018</v>
       </c>
       <c r="B340" t="n">
-        <v>51</v>
+        <v>59054</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>177527</v>
+        <v>13927979</v>
       </c>
       <c r="B341" t="n">
-        <v>1058</v>
+        <v>51030</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>8073072</v>
+        <v>11243753</v>
       </c>
       <c r="B342" t="n">
-        <v>31807</v>
+        <v>41772</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>267658</v>
+        <v>9374705</v>
       </c>
       <c r="B343" t="n">
-        <v>2016</v>
+        <v>35484</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -6607,124 +6607,124 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>14850968</v>
+        <v>15862633</v>
       </c>
       <c r="B344" t="n">
-        <v>66312</v>
+        <v>60285</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Quang Ninh</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1467080</v>
+        <v>9551750</v>
       </c>
       <c r="B345" t="n">
-        <v>12321</v>
+        <v>44448</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>185551</v>
+        <v>17327101</v>
       </c>
       <c r="B346" t="n">
-        <v>1275</v>
+        <v>74272</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2633177</v>
+        <v>16239762</v>
       </c>
       <c r="B347" t="n">
-        <v>19120</v>
+        <v>63321</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>5561826</v>
+        <v>10918194</v>
       </c>
       <c r="B348" t="n">
-        <v>28731</v>
+        <v>39803</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>20490034</v>
+        <v>12448062</v>
       </c>
       <c r="B349" t="n">
-        <v>87101</v>
+        <v>45895</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>12218480</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>43940</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6733,124 +6733,124 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>24475044</v>
+        <v>13273312</v>
       </c>
       <c r="B351" t="n">
-        <v>137689</v>
+        <v>46554</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Quang Tri</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>144098</v>
+        <v>10285</v>
       </c>
       <c r="B352" t="n">
-        <v>985</v>
+        <v>85</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1034700</v>
+        <v>156589</v>
       </c>
       <c r="B353" t="n">
-        <v>9204</v>
+        <v>1779</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>5998178</v>
+        <v>121868</v>
       </c>
       <c r="B354" t="n">
-        <v>25375</v>
+        <v>957</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>9874624</v>
+        <v>27761</v>
       </c>
       <c r="B355" t="n">
-        <v>45702</v>
+        <v>195</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>10069210</v>
+        <v>63559</v>
       </c>
       <c r="B356" t="n">
-        <v>45691</v>
+        <v>382</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>31332305</v>
+        <v>11397</v>
       </c>
       <c r="B357" t="n">
-        <v>121465</v>
+        <v>160</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -6859,124 +6859,124 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>25798800</v>
+        <v>15048</v>
       </c>
       <c r="B358" t="n">
-        <v>93625</v>
+        <v>96</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Soc Trang</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>30652913</v>
+        <v>0</v>
       </c>
       <c r="B359" t="n">
-        <v>98399</v>
+        <v>0</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>14894200</v>
+        <v>30405</v>
       </c>
       <c r="B360" t="n">
-        <v>63365</v>
+        <v>347</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>83749</v>
+        <v>16594</v>
       </c>
       <c r="B361" t="n">
-        <v>523</v>
+        <v>208</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>5160939</v>
+        <v>6749</v>
       </c>
       <c r="B362" t="n">
-        <v>35453</v>
+        <v>86</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>16461169</v>
+        <v>542</v>
       </c>
       <c r="B363" t="n">
-        <v>71445</v>
+        <v>10</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0</v>
+        <v>3036</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6985,92 +6985,92 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>9374705</v>
+        <v>2766</v>
       </c>
       <c r="B365" t="n">
-        <v>35484</v>
+        <v>36</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Son La</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>12218480</v>
+        <v>11202130</v>
       </c>
       <c r="B366" t="n">
-        <v>43940</v>
+        <v>49124</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>11397</v>
+        <v>24081189</v>
       </c>
       <c r="B367" t="n">
-        <v>160</v>
+        <v>100448</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3036</v>
+        <v>17970757</v>
       </c>
       <c r="B368" t="n">
-        <v>33</v>
+        <v>74117</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>8924704</v>
+        <v>13711299</v>
       </c>
       <c r="B369" t="n">
-        <v>37283</v>
+        <v>56376</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7081,28 +7081,28 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1889070</v>
+        <v>13073605</v>
       </c>
       <c r="B370" t="n">
-        <v>11523</v>
+        <v>54922</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1963</v>
+        <v>8924704</v>
       </c>
       <c r="B371" t="n">
-        <v>26</v>
+        <v>37283</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7111,124 +7111,124 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>374332</v>
+        <v>15785105</v>
       </c>
       <c r="B372" t="n">
-        <v>1590</v>
+        <v>62165</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Tay Ninh</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>9407894</v>
+        <v>2612161</v>
       </c>
       <c r="B373" t="n">
-        <v>44030</v>
+        <v>15995</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>6097818</v>
+        <v>3262714</v>
       </c>
       <c r="B374" t="n">
-        <v>44441</v>
+        <v>19169</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1383690</v>
+        <v>4447246</v>
       </c>
       <c r="B375" t="n">
-        <v>6294</v>
+        <v>25123</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>8758557</v>
+        <v>1870895</v>
       </c>
       <c r="B376" t="n">
-        <v>44177</v>
+        <v>12205</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>3142453</v>
+        <v>2223313</v>
       </c>
       <c r="B377" t="n">
-        <v>15006</v>
+        <v>15266</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4752050</v>
+        <v>1889070</v>
       </c>
       <c r="B378" t="n">
-        <v>32281</v>
+        <v>11523</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7237,142 +7237,142 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>970</v>
+        <v>7206892</v>
       </c>
       <c r="B379" t="n">
-        <v>8</v>
+        <v>16898</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Yen Bai</t>
+          <t>Thai Binh</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>38233</v>
+        <v>0</v>
       </c>
       <c r="B380" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>868471</v>
+        <v>10986</v>
       </c>
       <c r="B381" t="n">
-        <v>4156</v>
+        <v>107</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Ba Ria-Vung Tau</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>7870561</v>
+        <v>6213</v>
       </c>
       <c r="B382" t="n">
-        <v>27677</v>
+        <v>79</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Bac Giang</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>12505463</v>
+        <v>2248</v>
       </c>
       <c r="B383" t="n">
-        <v>51861</v>
+        <v>36</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Bac Kan</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2365391</v>
+        <v>1820</v>
       </c>
       <c r="B384" t="n">
-        <v>6660</v>
+        <v>36</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Bac Lieu</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>14034223</v>
+        <v>1963</v>
       </c>
       <c r="B385" t="n">
-        <v>44236</v>
+        <v>26</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Bac Ninh</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>5853</v>
+        <v>2272</v>
       </c>
       <c r="B386" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -7381,124 +7381,124 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Ben Tre</t>
+          <t>Thai Nguyen</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>11113223</v>
+        <v>425434</v>
       </c>
       <c r="B387" t="n">
-        <v>39451</v>
+        <v>2224</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Binh Dinh</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>9256120</v>
+        <v>846848</v>
       </c>
       <c r="B388" t="n">
-        <v>39124</v>
+        <v>4118</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Binh Duong</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>5945</v>
+        <v>848784</v>
       </c>
       <c r="B389" t="n">
-        <v>11</v>
+        <v>3621</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Binh Phuoc</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>5751</v>
+        <v>778516</v>
       </c>
       <c r="B390" t="n">
-        <v>69</v>
+        <v>3382</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Binh Thuan</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2132327</v>
+        <v>548039</v>
       </c>
       <c r="B391" t="n">
-        <v>14934</v>
+        <v>2760</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Ca Mau</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2397398</v>
+        <v>374332</v>
       </c>
       <c r="B392" t="n">
-        <v>8157</v>
+        <v>1590</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Can Tho</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>259</v>
+        <v>444049</v>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>1622</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -7507,124 +7507,124 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Cao Bang</t>
+          <t>Thanh Hoa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>8623536</v>
+        <v>4242436</v>
       </c>
       <c r="B394" t="n">
-        <v>39217</v>
+        <v>22723</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Da Nang</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>5597463</v>
+        <v>7396044</v>
       </c>
       <c r="B395" t="n">
-        <v>28806</v>
+        <v>38363</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Dak Lak</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2216727</v>
+        <v>7961846</v>
       </c>
       <c r="B396" t="n">
-        <v>19076</v>
+        <v>39182</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Dak Nong</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>45734</v>
+        <v>9342690</v>
       </c>
       <c r="B397" t="n">
-        <v>195</v>
+        <v>44199</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Dien Bien</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>221798</v>
+        <v>7560445</v>
       </c>
       <c r="B398" t="n">
-        <v>1122</v>
+        <v>37249</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Dong Nai</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>10300664</v>
+        <v>9407894</v>
       </c>
       <c r="B399" t="n">
-        <v>35836</v>
+        <v>44030</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Dong Thap</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>732</v>
+        <v>10899766</v>
       </c>
       <c r="B400" t="n">
-        <v>2</v>
+        <v>48233</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -7633,124 +7633,124 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Gia Lai</t>
+          <t>Thua Thien - Hue</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>237561</v>
+        <v>8309672</v>
       </c>
       <c r="B401" t="n">
-        <v>702</v>
+        <v>58435</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Ha Giang</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>19258</v>
+        <v>11679290</v>
       </c>
       <c r="B402" t="n">
-        <v>57</v>
+        <v>86184</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Ha Nam</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>31857</v>
+        <v>9205517</v>
       </c>
       <c r="B403" t="n">
-        <v>169</v>
+        <v>67620</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Ha Noi</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>72691</v>
+        <v>6262881</v>
       </c>
       <c r="B404" t="n">
-        <v>380</v>
+        <v>48824</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Ha Tinh</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>6328750</v>
+        <v>7636247</v>
       </c>
       <c r="B405" t="n">
-        <v>22346</v>
+        <v>61656</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Hai Duong</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>421564</v>
+        <v>6097818</v>
       </c>
       <c r="B406" t="n">
-        <v>3237</v>
+        <v>44441</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Hai Phong</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>9099980</v>
+        <v>5714338</v>
       </c>
       <c r="B407" t="n">
-        <v>40483</v>
+        <v>42465</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -7759,124 +7759,124 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Hau Giang</t>
+          <t>Tien Giang</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1151274</v>
+        <v>673595</v>
       </c>
       <c r="B408" t="n">
-        <v>9424</v>
+        <v>3605</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Ho Chi Minh city</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>151039</v>
+        <v>1610895</v>
       </c>
       <c r="B409" t="n">
-        <v>459</v>
+        <v>7473</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Hoa Binh</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1926770</v>
+        <v>1758511</v>
       </c>
       <c r="B410" t="n">
-        <v>11336</v>
+        <v>7810</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Hung Yen</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>4835379</v>
+        <v>1703073</v>
       </c>
       <c r="B411" t="n">
-        <v>21749</v>
+        <v>7599</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Khanh Hoa</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>29614507</v>
+        <v>1714335</v>
       </c>
       <c r="B412" t="n">
-        <v>126441</v>
+        <v>7742</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Kien Giang</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>4374</v>
+        <v>1383690</v>
       </c>
       <c r="B413" t="n">
-        <v>18</v>
+        <v>6294</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Kon Tum</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>20985736</v>
+        <v>857068</v>
       </c>
       <c r="B414" t="n">
-        <v>95803</v>
+        <v>3740</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7885,124 +7885,124 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Lai Chau</t>
+          <t>Tra Vinh</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>216788</v>
+        <v>7381107</v>
       </c>
       <c r="B415" t="n">
-        <v>1148</v>
+        <v>36984</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Lam Dong</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>435586</v>
+        <v>14259813</v>
       </c>
       <c r="B416" t="n">
-        <v>2768</v>
+        <v>64091</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Lang Son</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>8805379</v>
+        <v>12967426</v>
       </c>
       <c r="B417" t="n">
-        <v>35913</v>
+        <v>66965</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Lao Cai</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>8816113</v>
+        <v>9992466</v>
       </c>
       <c r="B418" t="n">
-        <v>33616</v>
+        <v>48950</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Long An</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>7157837</v>
+        <v>7106930</v>
       </c>
       <c r="B419" t="n">
-        <v>30251</v>
+        <v>38843</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>36514749</v>
+        <v>8758557</v>
       </c>
       <c r="B420" t="n">
-        <v>146415</v>
+        <v>44177</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Nghe An</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>26332237</v>
+        <v>7437228</v>
       </c>
       <c r="B421" t="n">
-        <v>84074</v>
+        <v>33365</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -8011,124 +8011,124 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Ninh Binh</t>
+          <t>Tuyen Quang</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>26022789</v>
+        <v>7827816</v>
       </c>
       <c r="B422" t="n">
-        <v>81150</v>
+        <v>35265</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Ninh Thuan</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>12081214</v>
+        <v>11550485</v>
       </c>
       <c r="B423" t="n">
-        <v>48648</v>
+        <v>52574</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Phu Tho</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>107203</v>
+        <v>7978319</v>
       </c>
       <c r="B424" t="n">
-        <v>653</v>
+        <v>36306</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Phu Yen</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>3159493</v>
+        <v>4361978</v>
       </c>
       <c r="B425" t="n">
-        <v>21414</v>
+        <v>21161</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Quang Binh</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>19410276</v>
+        <v>4675238</v>
       </c>
       <c r="B426" t="n">
-        <v>72919</v>
+        <v>21632</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Quang Nam</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>948</v>
+        <v>3142453</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>15006</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Quang Ngai</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>15862633</v>
+        <v>3205878</v>
       </c>
       <c r="B428" t="n">
-        <v>60285</v>
+        <v>13736</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -8137,124 +8137,124 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Quang Ninh</t>
+          <t>Vinh Long</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>13273312</v>
+        <v>2804517</v>
       </c>
       <c r="B429" t="n">
-        <v>46554</v>
+        <v>16251</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Quang Tri</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>15048</v>
+        <v>3926043</v>
       </c>
       <c r="B430" t="n">
-        <v>96</v>
+        <v>21422</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Soc Trang</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2766</v>
+        <v>5841910</v>
       </c>
       <c r="B431" t="n">
-        <v>36</v>
+        <v>25487</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Son La</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>15785105</v>
+        <v>5195976</v>
       </c>
       <c r="B432" t="n">
-        <v>62165</v>
+        <v>27123</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Tay Ninh</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>7206892</v>
+        <v>4440935</v>
       </c>
       <c r="B433" t="n">
-        <v>16898</v>
+        <v>34202</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Thai Binh</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2272</v>
+        <v>4752050</v>
       </c>
       <c r="B434" t="n">
-        <v>9</v>
+        <v>32281</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Thai Nguyen</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>444049</v>
+        <v>7157571</v>
       </c>
       <c r="B435" t="n">
-        <v>1622</v>
+        <v>29809</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8263,115 +8263,115 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Thanh Hoa</t>
+          <t>Vinh Phuc</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>10899766</v>
+        <v>68574</v>
       </c>
       <c r="B436" t="n">
-        <v>48233</v>
+        <v>402</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Thua Thien - Hue</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>5714338</v>
+        <v>571292</v>
       </c>
       <c r="B437" t="n">
-        <v>42465</v>
+        <v>1490</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Tien Giang</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>857068</v>
+        <v>360933</v>
       </c>
       <c r="B438" t="n">
-        <v>3740</v>
+        <v>752</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Tra Vinh</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>7437228</v>
+        <v>226560</v>
       </c>
       <c r="B439" t="n">
-        <v>33365</v>
+        <v>450</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Tuyen Quang</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>3205878</v>
+        <v>12688</v>
       </c>
       <c r="B440" t="n">
-        <v>13736</v>
+        <v>63</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Vinh Long</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>7157571</v>
+        <v>970</v>
       </c>
       <c r="B441" t="n">
-        <v>29809</v>
+        <v>8</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Vinh Phuc</t>
+          <t>Yen Bai</t>
         </is>
       </c>
     </row>

--- a/data/processed/deforest_carbon.xlsx
+++ b/data/processed/deforest_carbon.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
